--- a/public/data/KOAB3606.xlsx
+++ b/public/data/KOAB3606.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/hipe/public/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/3606/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E65259D-9578-5345-A4EE-FE6B17EF639F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A3840-5DE0-034F-8496-AC2C9D13FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2860" windowWidth="25520" windowHeight="16540" xr2:uid="{D4FAC217-7F43-41FD-A29A-2DECA4C0D425}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Governor Name</t>
   </si>
@@ -350,12 +350,6 @@
     <t>78938282</t>
   </si>
   <si>
-    <t>Uzï</t>
-  </si>
-  <si>
-    <t>13713321</t>
-  </si>
-  <si>
     <t>NewDoryᶦᴺ</t>
   </si>
   <si>
@@ -546,12 +540,6 @@
   </si>
   <si>
     <t>123461709</t>
-  </si>
-  <si>
-    <t>寂Silfieshi</t>
-  </si>
-  <si>
-    <t>187775892</t>
   </si>
   <si>
     <t>ᴮᵍᴿ tkhd</t>
@@ -839,7 +827,13 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -851,13 +845,7 @@
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -879,26 +867,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1EB4EBB-3F3F-4A12-BA86-03DAB0F049FC}" name="Table4" displayName="Table4" ref="A1:J112" totalsRowShown="0">
-  <autoFilter ref="A1:J112" xr:uid="{B1EB4EBB-3F3F-4A12-BA86-03DAB0F049FC}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H112">
-    <sortCondition descending="1" ref="C1:C112"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1EB4EBB-3F3F-4A12-BA86-03DAB0F049FC}" name="Table4" displayName="Table4" ref="A1:J110" totalsRowShown="0">
+  <autoFilter ref="A1:J110" xr:uid="{B1EB4EBB-3F3F-4A12-BA86-03DAB0F049FC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H110">
+    <sortCondition descending="1" ref="C1:C110"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{C1C32195-5E18-4180-A47B-304F81BC93A3}" name="Governor Name"/>
     <tableColumn id="2" xr3:uid="{55C499D4-7764-435E-B583-8C553649ED80}" name="Governor ID" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{EB0382D7-2287-48D2-9EFD-353DD36A198C}" name="Power" dataDxfId="7" dataCellStyle="Comma"/>
-    <tableColumn id="5" xr3:uid="{7C8F75FD-47CB-4082-91CE-DC88935AA17B}" name="Kill Points" dataDxfId="3" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{88E5EC71-A8D3-4322-8BBA-EA75CF8B6F61}" name="Deads" dataDxfId="2" dataCellStyle="Comma"/>
-    <tableColumn id="7" xr3:uid="{890CE103-5085-4357-BB9F-3D13DCBD8DCA}" name="T4 Kills" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="8" xr3:uid="{299FD0AE-4882-4C6C-8839-1AB767CDE42B}" name="T5 Kills" dataDxfId="0" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{8C2476F7-D066-454E-BF1A-ED5E35E17058}" name="Required Deads" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{90618AE4-8799-4E18-9F08-172343FB241D}" name="Required KP" dataDxfId="5">
+    <tableColumn id="5" xr3:uid="{7C8F75FD-47CB-4082-91CE-DC88935AA17B}" name="Kill Points" dataDxfId="6" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{88E5EC71-A8D3-4322-8BBA-EA75CF8B6F61}" name="Deads" dataDxfId="5" dataCellStyle="Comma"/>
+    <tableColumn id="7" xr3:uid="{890CE103-5085-4357-BB9F-3D13DCBD8DCA}" name="T4 Kills" dataDxfId="4" dataCellStyle="Comma"/>
+    <tableColumn id="8" xr3:uid="{299FD0AE-4882-4C6C-8839-1AB767CDE42B}" name="T5 Kills" dataDxfId="3" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{8C2476F7-D066-454E-BF1A-ED5E35E17058}" name="Required Deads" dataDxfId="2"/>
+    <tableColumn id="14" xr3:uid="{90618AE4-8799-4E18-9F08-172343FB241D}" name="Required KP" dataDxfId="1">
       <calculatedColumnFormula>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A9F4D1E-97C0-4710-8744-DDAF37353C15}" name="DKP" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{9A9F4D1E-97C0-4710-8744-DDAF37353C15}" name="DKP" dataDxfId="0">
       <calculatedColumnFormula>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1223,10 +1211,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B30EDE-3C8C-462C-B373-5E517D6159AB}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1270,7 +1258,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3009,32 +2997,32 @@
         <v>105</v>
       </c>
       <c r="C50" s="2">
-        <v>76859530</v>
+        <v>75141879</v>
       </c>
       <c r="D50" s="5">
-        <v>2849601117</v>
+        <v>1349359119</v>
       </c>
       <c r="E50" s="5">
-        <v>21507648</v>
+        <v>21238261</v>
       </c>
       <c r="F50" s="5">
-        <v>149954249</v>
+        <v>39645599</v>
       </c>
       <c r="G50" s="5">
-        <v>64221304</v>
+        <v>45691996</v>
       </c>
       <c r="H50" s="2">
-        <v>975000</v>
+        <v>900000</v>
       </c>
       <c r="I50" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>461157180</v>
+        <v>450851274</v>
       </c>
       <c r="J50" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>607407180</v>
+        <v>585851274</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
@@ -3045,19 +3033,19 @@
         <v>107</v>
       </c>
       <c r="C51" s="2">
-        <v>75141879</v>
+        <v>74512213</v>
       </c>
       <c r="D51" s="5">
-        <v>1349359119</v>
+        <v>1037030842</v>
       </c>
       <c r="E51" s="5">
-        <v>21238261</v>
+        <v>16411758</v>
       </c>
       <c r="F51" s="5">
-        <v>39645599</v>
+        <v>37127614</v>
       </c>
       <c r="G51" s="5">
-        <v>45691996</v>
+        <v>32594886</v>
       </c>
       <c r="H51" s="2">
         <v>900000</v>
@@ -3066,11 +3054,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>450851274</v>
+        <v>447073278</v>
       </c>
       <c r="J51" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>585851274</v>
+        <v>582073278</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
@@ -3081,32 +3069,32 @@
         <v>109</v>
       </c>
       <c r="C52" s="2">
-        <v>74512213</v>
+        <v>73493174</v>
       </c>
       <c r="D52" s="5">
-        <v>1037030842</v>
+        <v>2882584118</v>
       </c>
       <c r="E52" s="5">
-        <v>16411758</v>
+        <v>22089781</v>
       </c>
       <c r="F52" s="5">
-        <v>37127614</v>
+        <v>96437977</v>
       </c>
       <c r="G52" s="5">
-        <v>32594886</v>
+        <v>95109347</v>
       </c>
       <c r="H52" s="2">
-        <v>900000</v>
+        <v>975000</v>
       </c>
       <c r="I52" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>447073278</v>
+        <v>440959044</v>
       </c>
       <c r="J52" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>582073278</v>
+        <v>587209044</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
@@ -3117,32 +3105,32 @@
         <v>111</v>
       </c>
       <c r="C53" s="2">
-        <v>73493174</v>
+        <v>73265371</v>
       </c>
       <c r="D53" s="5">
-        <v>2882584118</v>
+        <v>1360968981</v>
       </c>
       <c r="E53" s="5">
-        <v>22089781</v>
+        <v>10135346</v>
       </c>
       <c r="F53" s="5">
-        <v>96437977</v>
+        <v>54160113</v>
       </c>
       <c r="G53" s="5">
-        <v>95109347</v>
+        <v>40610474</v>
       </c>
       <c r="H53" s="2">
-        <v>975000</v>
+        <v>900000</v>
       </c>
       <c r="I53" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>440959044</v>
+        <v>439592226</v>
       </c>
       <c r="J53" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>587209044</v>
+        <v>574592226</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
@@ -3153,19 +3141,19 @@
         <v>113</v>
       </c>
       <c r="C54" s="2">
-        <v>73265371</v>
+        <v>71724803</v>
       </c>
       <c r="D54" s="5">
-        <v>1360968981</v>
+        <v>503972789</v>
       </c>
       <c r="E54" s="5">
-        <v>10135346</v>
+        <v>2318802</v>
       </c>
       <c r="F54" s="5">
-        <v>54160113</v>
+        <v>22194874</v>
       </c>
       <c r="G54" s="5">
-        <v>40610474</v>
+        <v>13952438</v>
       </c>
       <c r="H54" s="2">
         <v>900000</v>
@@ -3174,11 +3162,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>439592226</v>
+        <v>430348818</v>
       </c>
       <c r="J54" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>574592226</v>
+        <v>565348818</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
@@ -3189,19 +3177,19 @@
         <v>115</v>
       </c>
       <c r="C55" s="2">
-        <v>71724803</v>
+        <v>71647820</v>
       </c>
       <c r="D55" s="5">
-        <v>503972789</v>
+        <v>1145903977</v>
       </c>
       <c r="E55" s="5">
-        <v>2318802</v>
+        <v>6143058</v>
       </c>
       <c r="F55" s="5">
-        <v>22194874</v>
+        <v>65473693</v>
       </c>
       <c r="G55" s="5">
-        <v>13952438</v>
+        <v>23421319</v>
       </c>
       <c r="H55" s="2">
         <v>900000</v>
@@ -3210,11 +3198,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>430348818</v>
+        <v>429886920</v>
       </c>
       <c r="J55" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>565348818</v>
+        <v>564886920</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
@@ -3225,19 +3213,19 @@
         <v>117</v>
       </c>
       <c r="C56" s="2">
-        <v>71647820</v>
+        <v>71630516</v>
       </c>
       <c r="D56" s="5">
-        <v>1145903977</v>
+        <v>695257434</v>
       </c>
       <c r="E56" s="5">
-        <v>6143058</v>
+        <v>7101547</v>
       </c>
       <c r="F56" s="5">
-        <v>65473693</v>
+        <v>37546008</v>
       </c>
       <c r="G56" s="5">
-        <v>23421319</v>
+        <v>15521025</v>
       </c>
       <c r="H56" s="2">
         <v>900000</v>
@@ -3246,11 +3234,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>429886920</v>
+        <v>429783096</v>
       </c>
       <c r="J56" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>564886920</v>
+        <v>564783096</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
@@ -3261,19 +3249,19 @@
         <v>119</v>
       </c>
       <c r="C57" s="2">
-        <v>71630516</v>
+        <v>71495306</v>
       </c>
       <c r="D57" s="5">
-        <v>695257434</v>
+        <v>509722487</v>
       </c>
       <c r="E57" s="5">
-        <v>7101547</v>
+        <v>4935974</v>
       </c>
       <c r="F57" s="5">
-        <v>37546008</v>
+        <v>29535616</v>
       </c>
       <c r="G57" s="5">
-        <v>15521025</v>
+        <v>9577462</v>
       </c>
       <c r="H57" s="2">
         <v>900000</v>
@@ -3282,11 +3270,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>429783096</v>
+        <v>428971836</v>
       </c>
       <c r="J57" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>564783096</v>
+        <v>563971836</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
@@ -3297,19 +3285,19 @@
         <v>121</v>
       </c>
       <c r="C58" s="2">
-        <v>71495306</v>
+        <v>71470859</v>
       </c>
       <c r="D58" s="5">
-        <v>509722487</v>
+        <v>1035297577</v>
       </c>
       <c r="E58" s="5">
-        <v>4935974</v>
+        <v>8763997</v>
       </c>
       <c r="F58" s="5">
-        <v>29535616</v>
+        <v>58085253</v>
       </c>
       <c r="G58" s="5">
-        <v>9577462</v>
+        <v>21573866</v>
       </c>
       <c r="H58" s="2">
         <v>900000</v>
@@ -3318,11 +3306,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>428971836</v>
+        <v>428825154</v>
       </c>
       <c r="J58" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>563971836</v>
+        <v>563825154</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
@@ -3333,19 +3321,19 @@
         <v>123</v>
       </c>
       <c r="C59" s="2">
-        <v>71470859</v>
+        <v>71385969</v>
       </c>
       <c r="D59" s="5">
-        <v>1035297577</v>
+        <v>1894216920</v>
       </c>
       <c r="E59" s="5">
-        <v>8763997</v>
+        <v>3362456</v>
       </c>
       <c r="F59" s="5">
-        <v>58085253</v>
+        <v>84326891</v>
       </c>
       <c r="G59" s="5">
-        <v>21573866</v>
+        <v>52220287</v>
       </c>
       <c r="H59" s="2">
         <v>900000</v>
@@ -3354,11 +3342,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>428825154</v>
+        <v>428315814</v>
       </c>
       <c r="J59" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>563825154</v>
+        <v>563315814</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
@@ -3369,19 +3357,19 @@
         <v>125</v>
       </c>
       <c r="C60" s="2">
-        <v>71385969</v>
+        <v>71365978</v>
       </c>
       <c r="D60" s="5">
-        <v>1894216920</v>
+        <v>3302319266</v>
       </c>
       <c r="E60" s="5">
-        <v>3362456</v>
+        <v>22596032</v>
       </c>
       <c r="F60" s="5">
-        <v>84326891</v>
+        <v>75700364</v>
       </c>
       <c r="G60" s="5">
-        <v>52220287</v>
+        <v>125896951</v>
       </c>
       <c r="H60" s="2">
         <v>900000</v>
@@ -3390,11 +3378,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>428315814</v>
+        <v>428195868</v>
       </c>
       <c r="J60" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>563315814</v>
+        <v>563195868</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
@@ -3405,19 +3393,19 @@
         <v>127</v>
       </c>
       <c r="C61" s="2">
-        <v>71365978</v>
+        <v>71349949</v>
       </c>
       <c r="D61" s="5">
-        <v>3302319266</v>
+        <v>3397586438</v>
       </c>
       <c r="E61" s="5">
-        <v>22596032</v>
+        <v>18540711</v>
       </c>
       <c r="F61" s="5">
-        <v>75700364</v>
+        <v>120710428</v>
       </c>
       <c r="G61" s="5">
-        <v>125896951</v>
+        <v>106294022</v>
       </c>
       <c r="H61" s="2">
         <v>900000</v>
@@ -3426,11 +3414,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>428195868</v>
+        <v>428099694</v>
       </c>
       <c r="J61" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>563195868</v>
+        <v>563099694</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
@@ -3441,19 +3429,19 @@
         <v>129</v>
       </c>
       <c r="C62" s="2">
-        <v>71349949</v>
+        <v>71292524</v>
       </c>
       <c r="D62" s="5">
-        <v>3397586438</v>
+        <v>669649163</v>
       </c>
       <c r="E62" s="5">
-        <v>18540711</v>
+        <v>4716833</v>
       </c>
       <c r="F62" s="5">
-        <v>120710428</v>
+        <v>42997195</v>
       </c>
       <c r="G62" s="5">
-        <v>106294022</v>
+        <v>7534547</v>
       </c>
       <c r="H62" s="2">
         <v>900000</v>
@@ -3462,11 +3450,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>428099694</v>
+        <v>427755144</v>
       </c>
       <c r="J62" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>563099694</v>
+        <v>562755144</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
@@ -3477,19 +3465,19 @@
         <v>131</v>
       </c>
       <c r="C63" s="2">
-        <v>71292524</v>
+        <v>70640930</v>
       </c>
       <c r="D63" s="5">
-        <v>669649163</v>
+        <v>656575571</v>
       </c>
       <c r="E63" s="5">
-        <v>4716833</v>
+        <v>2647857</v>
       </c>
       <c r="F63" s="5">
-        <v>42997195</v>
+        <v>33187884</v>
       </c>
       <c r="G63" s="5">
-        <v>7534547</v>
+        <v>15925157</v>
       </c>
       <c r="H63" s="2">
         <v>900000</v>
@@ -3498,11 +3486,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>427755144</v>
+        <v>423845580</v>
       </c>
       <c r="J63" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>562755144</v>
+        <v>558845580</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
@@ -3513,19 +3501,19 @@
         <v>133</v>
       </c>
       <c r="C64" s="2">
-        <v>70640930</v>
+        <v>70560047</v>
       </c>
       <c r="D64" s="5">
-        <v>656575571</v>
+        <v>831534717</v>
       </c>
       <c r="E64" s="5">
-        <v>2647857</v>
+        <v>5555137</v>
       </c>
       <c r="F64" s="5">
-        <v>33187884</v>
+        <v>77373348</v>
       </c>
       <c r="G64" s="5">
-        <v>15925157</v>
+        <v>1939359</v>
       </c>
       <c r="H64" s="2">
         <v>900000</v>
@@ -3534,11 +3522,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>423845580</v>
+        <v>423360282</v>
       </c>
       <c r="J64" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>558845580</v>
+        <v>558360282</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
@@ -3549,19 +3537,19 @@
         <v>135</v>
       </c>
       <c r="C65" s="2">
-        <v>70560047</v>
+        <v>70542231</v>
       </c>
       <c r="D65" s="5">
-        <v>831534717</v>
+        <v>984666975</v>
       </c>
       <c r="E65" s="5">
-        <v>5555137</v>
+        <v>4141712</v>
       </c>
       <c r="F65" s="5">
-        <v>77373348</v>
+        <v>68348119</v>
       </c>
       <c r="G65" s="5">
-        <v>1939359</v>
+        <v>13796670</v>
       </c>
       <c r="H65" s="2">
         <v>900000</v>
@@ -3570,11 +3558,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>423360282</v>
+        <v>423253386</v>
       </c>
       <c r="J65" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>558360282</v>
+        <v>558253386</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
@@ -3585,32 +3573,32 @@
         <v>137</v>
       </c>
       <c r="C66" s="2">
-        <v>70542231</v>
+        <v>70219641</v>
       </c>
       <c r="D66" s="5">
-        <v>984666975</v>
+        <v>522133075</v>
       </c>
       <c r="E66" s="5">
-        <v>4141712</v>
+        <v>6066933</v>
       </c>
       <c r="F66" s="5">
-        <v>68348119</v>
+        <v>33050338</v>
       </c>
       <c r="G66" s="5">
-        <v>13796670</v>
+        <v>7437969</v>
       </c>
       <c r="H66" s="2">
-        <v>900000</v>
+        <v>825000</v>
       </c>
       <c r="I66" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>423253386</v>
+        <v>421317846</v>
       </c>
       <c r="J66" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>558253386</v>
+        <v>545067846</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
@@ -3621,19 +3609,19 @@
         <v>139</v>
       </c>
       <c r="C67" s="2">
-        <v>70219641</v>
+        <v>69653406</v>
       </c>
       <c r="D67" s="5">
-        <v>522133075</v>
+        <v>2105835208</v>
       </c>
       <c r="E67" s="5">
-        <v>6066933</v>
+        <v>18954768</v>
       </c>
       <c r="F67" s="5">
-        <v>33050338</v>
+        <v>87723358</v>
       </c>
       <c r="G67" s="5">
-        <v>7437969</v>
+        <v>58107327</v>
       </c>
       <c r="H67" s="2">
         <v>825000</v>
@@ -3642,11 +3630,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>421317846</v>
+        <v>417920436</v>
       </c>
       <c r="J67" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>545067846</v>
+        <v>541670436</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
@@ -3657,19 +3645,19 @@
         <v>141</v>
       </c>
       <c r="C68" s="2">
-        <v>69653406</v>
+        <v>69582856</v>
       </c>
       <c r="D68" s="5">
-        <v>2105835208</v>
+        <v>1518847977</v>
       </c>
       <c r="E68" s="5">
-        <v>18954768</v>
+        <v>9306016</v>
       </c>
       <c r="F68" s="5">
-        <v>87723358</v>
+        <v>62256740</v>
       </c>
       <c r="G68" s="5">
-        <v>58107327</v>
+        <v>43980026</v>
       </c>
       <c r="H68" s="2">
         <v>825000</v>
@@ -3678,11 +3666,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>417920436</v>
+        <v>417497136</v>
       </c>
       <c r="J68" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>541670436</v>
+        <v>541247136</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
@@ -3693,19 +3681,19 @@
         <v>143</v>
       </c>
       <c r="C69" s="2">
-        <v>69582856</v>
+        <v>69514915</v>
       </c>
       <c r="D69" s="5">
-        <v>1518847977</v>
+        <v>2644691252</v>
       </c>
       <c r="E69" s="5">
-        <v>9306016</v>
+        <v>15491123</v>
       </c>
       <c r="F69" s="5">
-        <v>62256740</v>
+        <v>78602595</v>
       </c>
       <c r="G69" s="5">
-        <v>43980026</v>
+        <v>91640642</v>
       </c>
       <c r="H69" s="2">
         <v>825000</v>
@@ -3714,11 +3702,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>417497136</v>
+        <v>417089490</v>
       </c>
       <c r="J69" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>541247136</v>
+        <v>540839490</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
@@ -3729,19 +3717,19 @@
         <v>145</v>
       </c>
       <c r="C70" s="2">
-        <v>69514915</v>
+        <v>69005414</v>
       </c>
       <c r="D70" s="5">
-        <v>2644691252</v>
+        <v>2039680415</v>
       </c>
       <c r="E70" s="5">
-        <v>15491123</v>
+        <v>15629075</v>
       </c>
       <c r="F70" s="5">
-        <v>78602595</v>
+        <v>53873214</v>
       </c>
       <c r="G70" s="5">
-        <v>91640642</v>
+        <v>73569477</v>
       </c>
       <c r="H70" s="2">
         <v>825000</v>
@@ -3750,11 +3738,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>417089490</v>
+        <v>414032484</v>
       </c>
       <c r="J70" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>540839490</v>
+        <v>537782484</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
@@ -3765,19 +3753,19 @@
         <v>147</v>
       </c>
       <c r="C71" s="2">
-        <v>69005414</v>
+        <v>67362905</v>
       </c>
       <c r="D71" s="5">
-        <v>2039680415</v>
+        <v>597628839</v>
       </c>
       <c r="E71" s="5">
-        <v>15629075</v>
+        <v>3074259</v>
       </c>
       <c r="F71" s="5">
-        <v>53873214</v>
+        <v>44568971</v>
       </c>
       <c r="G71" s="5">
-        <v>73569477</v>
+        <v>5646209</v>
       </c>
       <c r="H71" s="2">
         <v>825000</v>
@@ -3786,11 +3774,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>414032484</v>
+        <v>404177430</v>
       </c>
       <c r="J71" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>537782484</v>
+        <v>527927430</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
@@ -3801,19 +3789,19 @@
         <v>149</v>
       </c>
       <c r="C72" s="2">
-        <v>67362905</v>
+        <v>66707129</v>
       </c>
       <c r="D72" s="5">
-        <v>597628839</v>
+        <v>538146250</v>
       </c>
       <c r="E72" s="5">
-        <v>3074259</v>
+        <v>4611170</v>
       </c>
       <c r="F72" s="5">
-        <v>44568971</v>
+        <v>31334618</v>
       </c>
       <c r="G72" s="5">
-        <v>5646209</v>
+        <v>8852404</v>
       </c>
       <c r="H72" s="2">
         <v>825000</v>
@@ -3822,11 +3810,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>404177430</v>
+        <v>400242774</v>
       </c>
       <c r="J72" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>527927430</v>
+        <v>523992774</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
@@ -3837,19 +3825,19 @@
         <v>151</v>
       </c>
       <c r="C73" s="2">
-        <v>66707129</v>
+        <v>65600330</v>
       </c>
       <c r="D73" s="5">
-        <v>538146250</v>
+        <v>483838257</v>
       </c>
       <c r="E73" s="5">
-        <v>4611170</v>
+        <v>2574268</v>
       </c>
       <c r="F73" s="5">
-        <v>31334618</v>
+        <v>26453844</v>
       </c>
       <c r="G73" s="5">
-        <v>8852404</v>
+        <v>10631906</v>
       </c>
       <c r="H73" s="2">
         <v>825000</v>
@@ -3858,11 +3846,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>400242774</v>
+        <v>393601980</v>
       </c>
       <c r="J73" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>523992774</v>
+        <v>517351980</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
@@ -3873,19 +3861,19 @@
         <v>153</v>
       </c>
       <c r="C74" s="2">
-        <v>65600330</v>
+        <v>65016698</v>
       </c>
       <c r="D74" s="5">
-        <v>483838257</v>
+        <v>585550313</v>
       </c>
       <c r="E74" s="5">
-        <v>2574268</v>
+        <v>4064933</v>
       </c>
       <c r="F74" s="5">
-        <v>26453844</v>
+        <v>35861994</v>
       </c>
       <c r="G74" s="5">
-        <v>10631906</v>
+        <v>9840259</v>
       </c>
       <c r="H74" s="2">
         <v>825000</v>
@@ -3894,11 +3882,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>393601980</v>
+        <v>390100188</v>
       </c>
       <c r="J74" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>517351980</v>
+        <v>513850188</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
@@ -3909,19 +3897,19 @@
         <v>155</v>
       </c>
       <c r="C75" s="2">
-        <v>65016698</v>
+        <v>64910346</v>
       </c>
       <c r="D75" s="5">
-        <v>585550313</v>
+        <v>650699267</v>
       </c>
       <c r="E75" s="5">
-        <v>4064933</v>
+        <v>2830914</v>
       </c>
       <c r="F75" s="5">
-        <v>35861994</v>
+        <v>38213482</v>
       </c>
       <c r="G75" s="5">
-        <v>9840259</v>
+        <v>12220059</v>
       </c>
       <c r="H75" s="2">
         <v>825000</v>
@@ -3930,11 +3918,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>390100188</v>
+        <v>389462076</v>
       </c>
       <c r="J75" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>513850188</v>
+        <v>513212076</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
@@ -3945,19 +3933,19 @@
         <v>157</v>
       </c>
       <c r="C76" s="2">
-        <v>64910346</v>
+        <v>64754559</v>
       </c>
       <c r="D76" s="5">
-        <v>650699267</v>
+        <v>1906759136</v>
       </c>
       <c r="E76" s="5">
-        <v>2830914</v>
+        <v>12988027</v>
       </c>
       <c r="F76" s="5">
-        <v>38213482</v>
+        <v>88827866</v>
       </c>
       <c r="G76" s="5">
-        <v>12220059</v>
+        <v>50000265</v>
       </c>
       <c r="H76" s="2">
         <v>825000</v>
@@ -3966,11 +3954,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>389462076</v>
+        <v>388527354</v>
       </c>
       <c r="J76" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>513212076</v>
+        <v>512277354</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
@@ -3981,19 +3969,19 @@
         <v>159</v>
       </c>
       <c r="C77" s="2">
-        <v>64754559</v>
+        <v>64643797</v>
       </c>
       <c r="D77" s="5">
-        <v>1906759136</v>
+        <v>264205123</v>
       </c>
       <c r="E77" s="5">
-        <v>12988027</v>
+        <v>3271420</v>
       </c>
       <c r="F77" s="5">
-        <v>88827866</v>
+        <v>15215960</v>
       </c>
       <c r="G77" s="5">
-        <v>50000265</v>
+        <v>5433112</v>
       </c>
       <c r="H77" s="2">
         <v>825000</v>
@@ -4002,11 +3990,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>388527354</v>
+        <v>387862782</v>
       </c>
       <c r="J77" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>512277354</v>
+        <v>511612782</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
@@ -4017,19 +4005,19 @@
         <v>161</v>
       </c>
       <c r="C78" s="2">
-        <v>64643797</v>
+        <v>64281585</v>
       </c>
       <c r="D78" s="5">
-        <v>264205123</v>
+        <v>816560683</v>
       </c>
       <c r="E78" s="5">
-        <v>3271420</v>
+        <v>7114396</v>
       </c>
       <c r="F78" s="5">
-        <v>15215960</v>
+        <v>57105903</v>
       </c>
       <c r="G78" s="5">
-        <v>5433112</v>
+        <v>9060592</v>
       </c>
       <c r="H78" s="2">
         <v>825000</v>
@@ -4038,11 +4026,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>387862782</v>
+        <v>385689510</v>
       </c>
       <c r="J78" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>511612782</v>
+        <v>509439510</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
@@ -4053,19 +4041,19 @@
         <v>163</v>
       </c>
       <c r="C79" s="2">
-        <v>64281585</v>
+        <v>64180919</v>
       </c>
       <c r="D79" s="5">
-        <v>816560683</v>
+        <v>1079393234</v>
       </c>
       <c r="E79" s="5">
-        <v>7114396</v>
+        <v>5600752</v>
       </c>
       <c r="F79" s="5">
-        <v>57105903</v>
+        <v>61882509</v>
       </c>
       <c r="G79" s="5">
-        <v>9060592</v>
+        <v>21297512</v>
       </c>
       <c r="H79" s="2">
         <v>825000</v>
@@ -4074,11 +4062,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>385689510</v>
+        <v>385085514</v>
       </c>
       <c r="J79" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>509439510</v>
+        <v>508835514</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
@@ -4089,19 +4077,19 @@
         <v>165</v>
       </c>
       <c r="C80" s="2">
-        <v>64180919</v>
+        <v>63924728</v>
       </c>
       <c r="D80" s="5">
-        <v>1079393234</v>
+        <v>689148672</v>
       </c>
       <c r="E80" s="5">
-        <v>5600752</v>
+        <v>3072289</v>
       </c>
       <c r="F80" s="5">
-        <v>61882509</v>
+        <v>36345933</v>
       </c>
       <c r="G80" s="5">
-        <v>21297512</v>
+        <v>15398276</v>
       </c>
       <c r="H80" s="2">
         <v>825000</v>
@@ -4110,11 +4098,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>385085514</v>
+        <v>383548368</v>
       </c>
       <c r="J80" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>508835514</v>
+        <v>507298368</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
@@ -4125,19 +4113,19 @@
         <v>167</v>
       </c>
       <c r="C81" s="2">
-        <v>63924728</v>
+        <v>63606087</v>
       </c>
       <c r="D81" s="5">
-        <v>689148672</v>
+        <v>1443713048</v>
       </c>
       <c r="E81" s="5">
-        <v>3072289</v>
+        <v>20023627</v>
       </c>
       <c r="F81" s="5">
-        <v>36345933</v>
+        <v>67625125</v>
       </c>
       <c r="G81" s="5">
-        <v>15398276</v>
+        <v>36200389</v>
       </c>
       <c r="H81" s="2">
         <v>825000</v>
@@ -4146,11 +4134,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>383548368</v>
+        <v>381636522</v>
       </c>
       <c r="J81" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>507298368</v>
+        <v>505386522</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
@@ -4161,19 +4149,19 @@
         <v>169</v>
       </c>
       <c r="C82" s="2">
-        <v>63606087</v>
+        <v>63324621</v>
       </c>
       <c r="D82" s="5">
-        <v>1443713048</v>
+        <v>335788129</v>
       </c>
       <c r="E82" s="5">
-        <v>20023627</v>
+        <v>1921828</v>
       </c>
       <c r="F82" s="5">
-        <v>67625125</v>
+        <v>18102700</v>
       </c>
       <c r="G82" s="5">
-        <v>36200389</v>
+        <v>6978627</v>
       </c>
       <c r="H82" s="2">
         <v>825000</v>
@@ -4182,11 +4170,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>381636522</v>
+        <v>379947726</v>
       </c>
       <c r="J82" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>505386522</v>
+        <v>503697726</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
@@ -4197,19 +4185,19 @@
         <v>171</v>
       </c>
       <c r="C83" s="2">
-        <v>63502073</v>
+        <v>62000849</v>
       </c>
       <c r="D83" s="5">
-        <v>1115473872</v>
+        <v>1146545609</v>
       </c>
       <c r="E83" s="5">
-        <v>3022753</v>
+        <v>3417373</v>
       </c>
       <c r="F83" s="5">
-        <v>77634190</v>
+        <v>76740431</v>
       </c>
       <c r="G83" s="5">
-        <v>15447053</v>
+        <v>16566496</v>
       </c>
       <c r="H83" s="2">
         <v>825000</v>
@@ -4218,11 +4206,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>381012438</v>
+        <v>372005094</v>
       </c>
       <c r="J83" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>504762438</v>
+        <v>495755094</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
@@ -4233,19 +4221,19 @@
         <v>173</v>
       </c>
       <c r="C84" s="2">
-        <v>63324621</v>
+        <v>61956761</v>
       </c>
       <c r="D84" s="5">
-        <v>335788129</v>
+        <v>235602179</v>
       </c>
       <c r="E84" s="5">
-        <v>1921828</v>
+        <v>3029482</v>
       </c>
       <c r="F84" s="5">
-        <v>18102700</v>
+        <v>14903747</v>
       </c>
       <c r="G84" s="5">
-        <v>6978627</v>
+        <v>4187345</v>
       </c>
       <c r="H84" s="2">
         <v>825000</v>
@@ -4254,11 +4242,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>379947726</v>
+        <v>371740566</v>
       </c>
       <c r="J84" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>503697726</v>
+        <v>495490566</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
@@ -4269,19 +4257,19 @@
         <v>175</v>
       </c>
       <c r="C85" s="2">
-        <v>62000849</v>
+        <v>61900225</v>
       </c>
       <c r="D85" s="5">
-        <v>1146545609</v>
+        <v>511845939</v>
       </c>
       <c r="E85" s="5">
-        <v>3417373</v>
+        <v>5279160</v>
       </c>
       <c r="F85" s="5">
-        <v>76740431</v>
+        <v>29128571</v>
       </c>
       <c r="G85" s="5">
-        <v>16566496</v>
+        <v>9232363</v>
       </c>
       <c r="H85" s="2">
         <v>825000</v>
@@ -4290,11 +4278,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>372005094</v>
+        <v>371401350</v>
       </c>
       <c r="J85" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>495755094</v>
+        <v>495151350</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
@@ -4305,19 +4293,19 @@
         <v>177</v>
       </c>
       <c r="C86" s="2">
-        <v>61956761</v>
+        <v>61533363</v>
       </c>
       <c r="D86" s="5">
-        <v>235602179</v>
+        <v>1200265850</v>
       </c>
       <c r="E86" s="5">
-        <v>3029482</v>
+        <v>4223109</v>
       </c>
       <c r="F86" s="5">
-        <v>14903747</v>
+        <v>62820000</v>
       </c>
       <c r="G86" s="5">
-        <v>4187345</v>
+        <v>27655016</v>
       </c>
       <c r="H86" s="2">
         <v>825000</v>
@@ -4326,11 +4314,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>371740566</v>
+        <v>369200178</v>
       </c>
       <c r="J86" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>495490566</v>
+        <v>492950178</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.2">
@@ -4341,19 +4329,19 @@
         <v>179</v>
       </c>
       <c r="C87" s="2">
-        <v>61900225</v>
+        <v>61189333</v>
       </c>
       <c r="D87" s="5">
-        <v>511845939</v>
+        <v>528825777</v>
       </c>
       <c r="E87" s="5">
-        <v>5279160</v>
+        <v>3062208</v>
       </c>
       <c r="F87" s="5">
-        <v>29128571</v>
+        <v>32728617</v>
       </c>
       <c r="G87" s="5">
-        <v>9232363</v>
+        <v>8736036</v>
       </c>
       <c r="H87" s="2">
         <v>825000</v>
@@ -4362,11 +4350,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>371401350</v>
+        <v>367135998</v>
       </c>
       <c r="J87" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>495151350</v>
+        <v>490885998</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.2">
@@ -4377,19 +4365,19 @@
         <v>181</v>
       </c>
       <c r="C88" s="2">
-        <v>61533363</v>
+        <v>61035145</v>
       </c>
       <c r="D88" s="5">
-        <v>1200265850</v>
+        <v>1403896978</v>
       </c>
       <c r="E88" s="5">
-        <v>4223109</v>
+        <v>4902709</v>
       </c>
       <c r="F88" s="5">
-        <v>62820000</v>
+        <v>96752393</v>
       </c>
       <c r="G88" s="5">
-        <v>27655016</v>
+        <v>16854147</v>
       </c>
       <c r="H88" s="2">
         <v>825000</v>
@@ -4398,11 +4386,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>369200178</v>
+        <v>366210870</v>
       </c>
       <c r="J88" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>492950178</v>
+        <v>489960870</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.2">
@@ -4413,32 +4401,32 @@
         <v>183</v>
       </c>
       <c r="C89" s="2">
-        <v>61189333</v>
+        <v>60728218</v>
       </c>
       <c r="D89" s="5">
-        <v>528825777</v>
+        <v>715855569</v>
       </c>
       <c r="E89" s="5">
-        <v>3062208</v>
+        <v>3268975</v>
       </c>
       <c r="F89" s="5">
-        <v>32728617</v>
+        <v>44896125</v>
       </c>
       <c r="G89" s="5">
-        <v>8736036</v>
+        <v>12818289</v>
       </c>
       <c r="H89" s="2">
-        <v>825000</v>
+        <v>637500</v>
       </c>
       <c r="I89" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>367135998</v>
+        <v>364369308</v>
       </c>
       <c r="J89" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>490885998</v>
+        <v>459994308</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
@@ -4449,32 +4437,32 @@
         <v>185</v>
       </c>
       <c r="C90" s="2">
-        <v>61035145</v>
+        <v>58220415</v>
       </c>
       <c r="D90" s="5">
-        <v>1403896978</v>
+        <v>1179475504</v>
       </c>
       <c r="E90" s="5">
-        <v>4902709</v>
+        <v>8442805</v>
       </c>
       <c r="F90" s="5">
-        <v>96752393</v>
+        <v>72669972</v>
       </c>
       <c r="G90" s="5">
-        <v>16854147</v>
+        <v>19276038</v>
       </c>
       <c r="H90" s="2">
-        <v>825000</v>
+        <v>637500</v>
       </c>
       <c r="I90" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>366210870</v>
+        <v>300000000</v>
       </c>
       <c r="J90" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>489960870</v>
+        <v>395625000</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.2">
@@ -4485,19 +4473,19 @@
         <v>187</v>
       </c>
       <c r="C91" s="2">
-        <v>60728218</v>
+        <v>56271979</v>
       </c>
       <c r="D91" s="5">
-        <v>715855569</v>
+        <v>1356233207</v>
       </c>
       <c r="E91" s="5">
-        <v>3268975</v>
+        <v>4738081</v>
       </c>
       <c r="F91" s="5">
-        <v>44896125</v>
+        <v>64486333</v>
       </c>
       <c r="G91" s="5">
-        <v>12818289</v>
+        <v>35243626</v>
       </c>
       <c r="H91" s="2">
         <v>637500</v>
@@ -4506,11 +4494,11 @@
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
    IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
    IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>364369308</v>
+        <v>300000000</v>
       </c>
       <c r="J91" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>459994308</v>
+        <v>395625000</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
@@ -4521,19 +4509,19 @@
         <v>189</v>
       </c>
       <c r="C92" s="2">
-        <v>58220415</v>
+        <v>54141119</v>
       </c>
       <c r="D92" s="5">
-        <v>1179475504</v>
+        <v>378715364</v>
       </c>
       <c r="E92" s="5">
-        <v>8442805</v>
+        <v>1988105</v>
       </c>
       <c r="F92" s="5">
-        <v>72669972</v>
+        <v>20483069</v>
       </c>
       <c r="G92" s="5">
-        <v>19276038</v>
+        <v>8520351</v>
       </c>
       <c r="H92" s="2">
         <v>637500</v>
@@ -4557,22 +4545,22 @@
         <v>191</v>
       </c>
       <c r="C93" s="2">
-        <v>56271979</v>
+        <v>54062681</v>
       </c>
       <c r="D93" s="5">
-        <v>1356233207</v>
+        <v>482857850</v>
       </c>
       <c r="E93" s="5">
-        <v>4738081</v>
+        <v>3282664</v>
       </c>
       <c r="F93" s="5">
-        <v>64486333</v>
+        <v>32117270</v>
       </c>
       <c r="G93" s="5">
-        <v>35243626</v>
+        <v>7112320</v>
       </c>
       <c r="H93" s="2">
-        <v>637500</v>
+        <v>450000</v>
       </c>
       <c r="I93" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4582,7 +4570,7 @@
       </c>
       <c r="J93" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>395625000</v>
+        <v>367500000</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
@@ -4593,22 +4581,22 @@
         <v>193</v>
       </c>
       <c r="C94" s="2">
-        <v>54141119</v>
+        <v>50387414</v>
       </c>
       <c r="D94" s="5">
-        <v>378715364</v>
+        <v>387670414</v>
       </c>
       <c r="E94" s="5">
-        <v>1988105</v>
+        <v>6385728</v>
       </c>
       <c r="F94" s="5">
-        <v>20483069</v>
+        <v>22814780</v>
       </c>
       <c r="G94" s="5">
-        <v>8520351</v>
+        <v>5796590</v>
       </c>
       <c r="H94" s="2">
-        <v>637500</v>
+        <v>450000</v>
       </c>
       <c r="I94" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4618,7 +4606,7 @@
       </c>
       <c r="J94" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>395625000</v>
+        <v>367500000</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
@@ -4629,22 +4617,22 @@
         <v>195</v>
       </c>
       <c r="C95" s="2">
-        <v>54062681</v>
+        <v>49731819</v>
       </c>
       <c r="D95" s="5">
-        <v>482857850</v>
+        <v>329360203</v>
       </c>
       <c r="E95" s="5">
-        <v>3282664</v>
+        <v>3150138</v>
       </c>
       <c r="F95" s="5">
-        <v>32117270</v>
+        <v>19633145</v>
       </c>
       <c r="G95" s="5">
-        <v>7112320</v>
+        <v>6439639</v>
       </c>
       <c r="H95" s="2">
-        <v>450000</v>
+        <v>300000</v>
       </c>
       <c r="I95" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4654,7 +4642,7 @@
       </c>
       <c r="J95" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>367500000</v>
+        <v>345000000</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
@@ -4665,19 +4653,19 @@
         <v>197</v>
       </c>
       <c r="C96" s="2">
-        <v>50387414</v>
+        <v>48406043</v>
       </c>
       <c r="D96" s="5">
-        <v>387670414</v>
+        <v>527115848</v>
       </c>
       <c r="E96" s="5">
-        <v>6385728</v>
+        <v>2008463</v>
       </c>
       <c r="F96" s="5">
-        <v>22814780</v>
+        <v>39065797</v>
       </c>
       <c r="G96" s="5">
-        <v>5796590</v>
+        <v>4770722</v>
       </c>
       <c r="H96" s="2">
         <v>450000</v>
@@ -4701,22 +4689,22 @@
         <v>199</v>
       </c>
       <c r="C97" s="2">
-        <v>49731819</v>
+        <v>47553868</v>
       </c>
       <c r="D97" s="5">
-        <v>329360203</v>
+        <v>152381163</v>
       </c>
       <c r="E97" s="5">
-        <v>3150138</v>
+        <v>3023925</v>
       </c>
       <c r="F97" s="5">
-        <v>19633145</v>
+        <v>10131255</v>
       </c>
       <c r="G97" s="5">
-        <v>6439639</v>
+        <v>2013254</v>
       </c>
       <c r="H97" s="2">
-        <v>300000</v>
+        <v>450000</v>
       </c>
       <c r="I97" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4726,7 +4714,7 @@
       </c>
       <c r="J97" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>345000000</v>
+        <v>367500000</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
@@ -4737,22 +4725,22 @@
         <v>201</v>
       </c>
       <c r="C98" s="2">
-        <v>48406043</v>
+        <v>47176082</v>
       </c>
       <c r="D98" s="5">
-        <v>527115848</v>
+        <v>190172372</v>
       </c>
       <c r="E98" s="5">
-        <v>2008463</v>
+        <v>2189498</v>
       </c>
       <c r="F98" s="5">
-        <v>39065797</v>
+        <v>13585145</v>
       </c>
       <c r="G98" s="5">
-        <v>4770722</v>
+        <v>2163748</v>
       </c>
       <c r="H98" s="2">
-        <v>450000</v>
+        <v>375000</v>
       </c>
       <c r="I98" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4762,7 +4750,7 @@
       </c>
       <c r="J98" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>367500000</v>
+        <v>356250000</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.2">
@@ -4773,22 +4761,22 @@
         <v>203</v>
       </c>
       <c r="C99" s="2">
-        <v>47553868</v>
+        <v>45421920</v>
       </c>
       <c r="D99" s="5">
-        <v>152381163</v>
+        <v>379985912</v>
       </c>
       <c r="E99" s="5">
-        <v>3023925</v>
+        <v>2925130</v>
       </c>
       <c r="F99" s="5">
-        <v>10131255</v>
+        <v>17460269</v>
       </c>
       <c r="G99" s="5">
-        <v>2013254</v>
+        <v>8701787</v>
       </c>
       <c r="H99" s="2">
-        <v>450000</v>
+        <v>375000</v>
       </c>
       <c r="I99" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -4798,7 +4786,7 @@
       </c>
       <c r="J99" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>367500000</v>
+        <v>356250000</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
@@ -4809,19 +4797,19 @@
         <v>205</v>
       </c>
       <c r="C100" s="2">
-        <v>47176082</v>
+        <v>44979801</v>
       </c>
       <c r="D100" s="5">
-        <v>190172372</v>
+        <v>172542483</v>
       </c>
       <c r="E100" s="5">
-        <v>2189498</v>
+        <v>1834175</v>
       </c>
       <c r="F100" s="5">
-        <v>13585145</v>
+        <v>10616378</v>
       </c>
       <c r="G100" s="5">
-        <v>2163748</v>
+        <v>3213277</v>
       </c>
       <c r="H100" s="2">
         <v>375000</v>
@@ -4845,19 +4833,19 @@
         <v>207</v>
       </c>
       <c r="C101" s="2">
-        <v>45421920</v>
+        <v>44795478</v>
       </c>
       <c r="D101" s="5">
-        <v>379985912</v>
+        <v>133786694</v>
       </c>
       <c r="E101" s="5">
-        <v>2925130</v>
+        <v>1365596</v>
       </c>
       <c r="F101" s="5">
-        <v>17460269</v>
+        <v>10142309</v>
       </c>
       <c r="G101" s="5">
-        <v>8701787</v>
+        <v>958225</v>
       </c>
       <c r="H101" s="2">
         <v>375000</v>
@@ -4881,19 +4869,19 @@
         <v>209</v>
       </c>
       <c r="C102" s="2">
-        <v>44979801</v>
+        <v>44205278</v>
       </c>
       <c r="D102" s="5">
-        <v>172542483</v>
+        <v>479334311</v>
       </c>
       <c r="E102" s="5">
-        <v>1834175</v>
+        <v>2806030</v>
       </c>
       <c r="F102" s="5">
-        <v>10616378</v>
+        <v>25217471</v>
       </c>
       <c r="G102" s="5">
-        <v>3213277</v>
+        <v>10647638</v>
       </c>
       <c r="H102" s="2">
         <v>375000</v>
@@ -4917,19 +4905,19 @@
         <v>211</v>
       </c>
       <c r="C103" s="2">
-        <v>44795478</v>
+        <v>44113530</v>
       </c>
       <c r="D103" s="5">
-        <v>133786694</v>
+        <v>289514473</v>
       </c>
       <c r="E103" s="5">
-        <v>1365596</v>
+        <v>2191432</v>
       </c>
       <c r="F103" s="5">
-        <v>10142309</v>
+        <v>18968152</v>
       </c>
       <c r="G103" s="5">
-        <v>958225</v>
+        <v>3959781</v>
       </c>
       <c r="H103" s="2">
         <v>375000</v>
@@ -4953,19 +4941,19 @@
         <v>213</v>
       </c>
       <c r="C104" s="2">
-        <v>44205278</v>
+        <v>43838245</v>
       </c>
       <c r="D104" s="5">
-        <v>479334311</v>
+        <v>114912128</v>
       </c>
       <c r="E104" s="5">
-        <v>2806030</v>
+        <v>1449888</v>
       </c>
       <c r="F104" s="5">
-        <v>25217471</v>
+        <v>6695600</v>
       </c>
       <c r="G104" s="5">
-        <v>10647638</v>
+        <v>2339465</v>
       </c>
       <c r="H104" s="2">
         <v>375000</v>
@@ -4989,22 +4977,22 @@
         <v>215</v>
       </c>
       <c r="C105" s="2">
-        <v>44113530</v>
+        <v>43662576</v>
       </c>
       <c r="D105" s="5">
-        <v>289514473</v>
+        <v>177543482</v>
       </c>
       <c r="E105" s="5">
-        <v>2191432</v>
+        <v>2465164</v>
       </c>
       <c r="F105" s="5">
-        <v>18968152</v>
+        <v>13772224</v>
       </c>
       <c r="G105" s="5">
-        <v>3959781</v>
+        <v>1098330</v>
       </c>
       <c r="H105" s="2">
-        <v>375000</v>
+        <v>300000</v>
       </c>
       <c r="I105" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -5014,7 +5002,7 @@
       </c>
       <c r="J105" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>356250000</v>
+        <v>345000000</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.2">
@@ -5025,22 +5013,22 @@
         <v>217</v>
       </c>
       <c r="C106" s="2">
-        <v>43838245</v>
+        <v>40549423</v>
       </c>
       <c r="D106" s="5">
-        <v>114912128</v>
+        <v>68515597</v>
       </c>
       <c r="E106" s="5">
-        <v>1449888</v>
+        <v>1523880</v>
       </c>
       <c r="F106" s="5">
-        <v>6695600</v>
+        <v>3829004</v>
       </c>
       <c r="G106" s="5">
-        <v>2339465</v>
+        <v>1456679</v>
       </c>
       <c r="H106" s="2">
-        <v>375000</v>
+        <v>300000</v>
       </c>
       <c r="I106" s="2">
         <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
@@ -5050,7 +5038,7 @@
       </c>
       <c r="J106" s="2">
         <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>356250000</v>
+        <v>345000000</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.2">
@@ -5061,19 +5049,19 @@
         <v>219</v>
       </c>
       <c r="C107" s="2">
-        <v>43662576</v>
+        <v>40521647</v>
       </c>
       <c r="D107" s="5">
-        <v>177543482</v>
+        <v>190466690</v>
       </c>
       <c r="E107" s="5">
-        <v>2465164</v>
+        <v>2208857</v>
       </c>
       <c r="F107" s="5">
-        <v>13772224</v>
+        <v>8014857</v>
       </c>
       <c r="G107" s="5">
-        <v>1098330</v>
+        <v>5472760</v>
       </c>
       <c r="H107" s="2">
         <v>300000</v>
@@ -5097,19 +5085,19 @@
         <v>221</v>
       </c>
       <c r="C108" s="2">
-        <v>40549423</v>
+        <v>40422107</v>
       </c>
       <c r="D108" s="5">
-        <v>68515597</v>
+        <v>186551139</v>
       </c>
       <c r="E108" s="5">
-        <v>1523880</v>
+        <v>3330332</v>
       </c>
       <c r="F108" s="5">
-        <v>3829004</v>
+        <v>11261567</v>
       </c>
       <c r="G108" s="5">
-        <v>1456679</v>
+        <v>3313008</v>
       </c>
       <c r="H108" s="2">
         <v>300000</v>
@@ -5133,19 +5121,19 @@
         <v>223</v>
       </c>
       <c r="C109" s="2">
-        <v>40521647</v>
+        <v>36877829</v>
       </c>
       <c r="D109" s="5">
-        <v>190466690</v>
+        <v>136060343</v>
       </c>
       <c r="E109" s="5">
-        <v>2208857</v>
+        <v>1971790</v>
       </c>
       <c r="F109" s="5">
-        <v>8014857</v>
+        <v>7798461</v>
       </c>
       <c r="G109" s="5">
-        <v>5472760</v>
+        <v>2723688</v>
       </c>
       <c r="H109" s="2">
         <v>300000</v>
@@ -5169,19 +5157,19 @@
         <v>225</v>
       </c>
       <c r="C110" s="2">
-        <v>40422107</v>
+        <v>34310719</v>
       </c>
       <c r="D110" s="5">
-        <v>186551139</v>
+        <v>14694091</v>
       </c>
       <c r="E110" s="5">
-        <v>3330332</v>
+        <v>222088</v>
       </c>
       <c r="F110" s="5">
-        <v>11261567</v>
+        <v>1036475</v>
       </c>
       <c r="G110" s="5">
-        <v>3313008</v>
+        <v>203161</v>
       </c>
       <c r="H110" s="2">
         <v>300000</v>
@@ -5197,80 +5185,8 @@
         <v>345000000</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C111" s="2">
-        <v>36877829</v>
-      </c>
-      <c r="D111" s="5">
-        <v>136060343</v>
-      </c>
-      <c r="E111" s="5">
-        <v>1971790</v>
-      </c>
-      <c r="F111" s="5">
-        <v>7798461</v>
-      </c>
-      <c r="G111" s="5">
-        <v>2723688</v>
-      </c>
-      <c r="H111" s="2">
-        <v>300000</v>
-      </c>
-      <c r="I111" s="2">
-        <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
-   IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
-   IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>300000000</v>
-      </c>
-      <c r="J111" s="2">
-        <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>345000000</v>
-      </c>
-    </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C112" s="2">
-        <v>34310719</v>
-      </c>
-      <c r="D112" s="5">
-        <v>14694091</v>
-      </c>
-      <c r="E112" s="5">
-        <v>222088</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1036475</v>
-      </c>
-      <c r="G112" s="5">
-        <v>203161</v>
-      </c>
-      <c r="H112" s="2">
-        <v>300000</v>
-      </c>
-      <c r="I112" s="2">
-        <f>IF(Table4[[#This Row],[Power]]&lt;60000000,300000000,
-   IF(Table4[[#This Row],[Power]]&lt;80000000,Table4[[#This Row],[Power]]*6,
-   IF(Table4[[#This Row],[Power]]&lt;100000000,Table4[[#This Row],[Power]]*6.5,Table4[[#This Row],[Power]]*7)))</f>
-        <v>300000000</v>
-      </c>
-      <c r="J112" s="2">
-        <f>Table4[[#This Row],[Required Deads]]*150+Table4[[#This Row],[Required KP]]</f>
-        <v>345000000</v>
-      </c>
-    </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I114" s="2"/>
+      <c r="I112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/data/KOAB3606.xlsx
+++ b/public/data/KOAB3606.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achen1076/Desktop/3606/public/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A41A3840-5DE0-034F-8496-AC2C9D13FB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D4ADCA-2100-044D-9102-94A90D0708E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1540" yWindow="2860" windowWidth="25520" windowHeight="16540" xr2:uid="{D4FAC217-7F43-41FD-A29A-2DECA4C0D425}"/>
   </bookViews>
@@ -1214,7 +1214,7 @@
   <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:XFD50"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2928,7 +2928,7 @@
         <v>77918411</v>
       </c>
       <c r="D48" s="5">
-        <v>6384701414</v>
+        <v>6334701414</v>
       </c>
       <c r="E48" s="5">
         <v>27239224</v>
